--- a/branches/master/ValueSet-role-medication-vs.xlsx
+++ b/branches/master/ValueSet-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T15:09:20+00:00</t>
+    <t>2022-01-26T17:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-role-medication-vs.xlsx
+++ b/branches/master/ValueSet-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:22:48+00:00</t>
+    <t>2022-01-26T17:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-role-medication-vs.xlsx
+++ b/branches/master/ValueSet-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:42:05+00:00</t>
+    <t>2022-01-27T10:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-role-medication-vs.xlsx
+++ b/branches/master/ValueSet-role-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T10:33:03+00:00</t>
+    <t>2022-01-27T11:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-role-medication-vs.xlsx
+++ b/branches/master/ValueSet-role-medication-vs.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoleMedicationVS</t>
+    <t>beRoleMedicationVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T11:55:52+00:00</t>
+    <t>2022-01-27T12:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
